--- a/ccid_scraped_output.xlsx
+++ b/ccid_scraped_output.xlsx
@@ -1807,18 +1807,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H1564" totalsRowShown="0">
-  <autoFilter ref="A1:H1564">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="100"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H1564"/>
   <tableColumns count="8">
     <tableColumn id="1" name="cas-no"/>
     <tableColumn id="2" name="full-title"/>
@@ -2132,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1501" workbookViewId="0">
-      <selection activeCell="C1373" sqref="C1373:D1383"/>
+    <sheetView tabSelected="1" topLeftCell="B955" workbookViewId="0">
+      <selection activeCell="B946" sqref="B946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2163,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2200,7 +2189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2304,7 +2293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2434,7 +2423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2824,7 +2813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2850,7 +2839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2876,7 +2865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2902,7 +2891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2928,7 +2917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2954,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3110,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -3136,7 +3125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -3162,7 +3151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -3188,7 +3177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -3214,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -3240,7 +3229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3838,7 +3827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -4020,7 +4009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -4046,7 +4035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -4072,7 +4061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -4098,7 +4087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -4124,7 +4113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -4150,7 +4139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -4176,7 +4165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +4191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -4228,7 +4217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -4254,7 +4243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -4280,7 +4269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -4306,7 +4295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -4332,7 +4321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -4358,7 +4347,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -4384,7 +4373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -4462,7 +4451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -4488,7 +4477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -4514,7 +4503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -4540,7 +4529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -4566,7 +4555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -4592,7 +4581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -4618,7 +4607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -4644,7 +4633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -4670,7 +4659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -4696,7 +4685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -4722,7 +4711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -4748,7 +4737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -4774,7 +4763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -4800,7 +4789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -4826,7 +4815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -4852,7 +4841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -4878,7 +4867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -4904,7 +4893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -4930,7 +4919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -4956,7 +4945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>45</v>
       </c>
@@ -4982,7 +4971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -5008,7 +4997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -5034,7 +5023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>45</v>
       </c>
@@ -5060,7 +5049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -5086,7 +5075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>45</v>
       </c>
@@ -5112,7 +5101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -5138,7 +5127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -5164,7 +5153,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -5190,7 +5179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -5216,7 +5205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -5242,7 +5231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -5268,7 +5257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -5294,7 +5283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -5320,7 +5309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -5346,7 +5335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -5372,7 +5361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -5398,7 +5387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -5424,7 +5413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -5450,7 +5439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -5476,7 +5465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -5502,7 +5491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -5528,7 +5517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -5554,7 +5543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -5580,7 +5569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -5606,7 +5595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -5632,7 +5621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -6178,7 +6167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>55</v>
       </c>
@@ -6204,7 +6193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -6230,7 +6219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -6256,7 +6245,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>55</v>
       </c>
@@ -6282,7 +6271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>55</v>
       </c>
@@ -6308,7 +6297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>55</v>
       </c>
@@ -6334,7 +6323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>55</v>
       </c>
@@ -6360,7 +6349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>55</v>
       </c>
@@ -6386,7 +6375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>55</v>
       </c>
@@ -6412,7 +6401,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -6438,7 +6427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -7088,7 +7077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>67</v>
       </c>
@@ -7114,7 +7103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>67</v>
       </c>
@@ -7140,7 +7129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>67</v>
       </c>
@@ -7166,7 +7155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>67</v>
       </c>
@@ -7192,7 +7181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>67</v>
       </c>
@@ -7218,7 +7207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>67</v>
       </c>
@@ -7244,7 +7233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -7270,7 +7259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>67</v>
       </c>
@@ -7296,7 +7285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>67</v>
       </c>
@@ -7322,7 +7311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>67</v>
       </c>
@@ -7348,7 +7337,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>67</v>
       </c>
@@ -7842,7 +7831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>77</v>
       </c>
@@ -7868,7 +7857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>77</v>
       </c>
@@ -7894,7 +7883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>77</v>
       </c>
@@ -7920,7 +7909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>77</v>
       </c>
@@ -7946,7 +7935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>77</v>
       </c>
@@ -7972,7 +7961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>77</v>
       </c>
@@ -7998,7 +7987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>77</v>
       </c>
@@ -8024,7 +8013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>77</v>
       </c>
@@ -8050,7 +8039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>77</v>
       </c>
@@ -8076,7 +8065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>77</v>
       </c>
@@ -8102,7 +8091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>77</v>
       </c>
@@ -8362,7 +8351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>81</v>
       </c>
@@ -8388,7 +8377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>81</v>
       </c>
@@ -8414,7 +8403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>81</v>
       </c>
@@ -8440,7 +8429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>81</v>
       </c>
@@ -8466,7 +8455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>81</v>
       </c>
@@ -8492,7 +8481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>81</v>
       </c>
@@ -8518,7 +8507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>81</v>
       </c>
@@ -8544,7 +8533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>81</v>
       </c>
@@ -8570,7 +8559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>81</v>
       </c>
@@ -8596,7 +8585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>81</v>
       </c>
@@ -8622,7 +8611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>81</v>
       </c>
@@ -8986,7 +8975,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -9012,7 +9001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -9038,7 +9027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -9064,7 +9053,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -9090,7 +9079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -9402,7 +9391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>98</v>
       </c>
@@ -9428,7 +9417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>98</v>
       </c>
@@ -9454,7 +9443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>98</v>
       </c>
@@ -9480,7 +9469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>98</v>
       </c>
@@ -9506,7 +9495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>98</v>
       </c>
@@ -9532,7 +9521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>98</v>
       </c>
@@ -9558,7 +9547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>98</v>
       </c>
@@ -9688,7 +9677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>102</v>
       </c>
@@ -9714,7 +9703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>102</v>
       </c>
@@ -9740,7 +9729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>102</v>
       </c>
@@ -9766,7 +9755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>102</v>
       </c>
@@ -9792,7 +9781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>102</v>
       </c>
@@ -9818,7 +9807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>102</v>
       </c>
@@ -9896,7 +9885,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>107</v>
       </c>
@@ -9922,7 +9911,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>107</v>
       </c>
@@ -9948,7 +9937,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>107</v>
       </c>
@@ -9974,7 +9963,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>107</v>
       </c>
@@ -10312,7 +10301,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>110</v>
       </c>
@@ -10338,7 +10327,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>110</v>
       </c>
@@ -10364,7 +10353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>110</v>
       </c>
@@ -10390,7 +10379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>110</v>
       </c>
@@ -10416,7 +10405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>110</v>
       </c>
@@ -10442,7 +10431,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>110</v>
       </c>
@@ -10468,7 +10457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>110</v>
       </c>
@@ -10494,7 +10483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>110</v>
       </c>
@@ -10520,7 +10509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>110</v>
       </c>
@@ -10546,7 +10535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>110</v>
       </c>
@@ -10572,7 +10561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>110</v>
       </c>
@@ -10598,7 +10587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>110</v>
       </c>
@@ -10624,7 +10613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>110</v>
       </c>
@@ -10650,7 +10639,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>110</v>
       </c>
@@ -10676,7 +10665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>110</v>
       </c>
@@ -10702,7 +10691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>110</v>
       </c>
@@ -10728,7 +10717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>110</v>
       </c>
@@ -10754,7 +10743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>110</v>
       </c>
@@ -10780,7 +10769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>110</v>
       </c>
@@ -10806,7 +10795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>110</v>
       </c>
@@ -10832,7 +10821,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>110</v>
       </c>
@@ -10858,7 +10847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>110</v>
       </c>
@@ -10884,7 +10873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>110</v>
       </c>
@@ -10910,7 +10899,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>110</v>
       </c>
@@ -10936,7 +10925,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>110</v>
       </c>
@@ -10962,7 +10951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>110</v>
       </c>
@@ -10988,7 +10977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>110</v>
       </c>
@@ -11014,7 +11003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>110</v>
       </c>
@@ -11040,7 +11029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>110</v>
       </c>
@@ -11066,7 +11055,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>110</v>
       </c>
@@ -11092,7 +11081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>110</v>
       </c>
@@ -11118,7 +11107,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>110</v>
       </c>
@@ -11144,7 +11133,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>110</v>
       </c>
@@ -11170,7 +11159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>110</v>
       </c>
@@ -11196,7 +11185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>110</v>
       </c>
@@ -11222,7 +11211,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>110</v>
       </c>
@@ -11248,7 +11237,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>110</v>
       </c>
@@ -11274,7 +11263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>110</v>
       </c>
@@ -11300,7 +11289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>110</v>
       </c>
@@ -11326,7 +11315,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>110</v>
       </c>
@@ -11352,7 +11341,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>119</v>
       </c>
@@ -11378,7 +11367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>119</v>
       </c>
@@ -11404,7 +11393,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>119</v>
       </c>
@@ -11430,7 +11419,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>119</v>
       </c>
@@ -11456,7 +11445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>119</v>
       </c>
@@ -11482,7 +11471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>119</v>
       </c>
@@ -11508,7 +11497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>119</v>
       </c>
@@ -11534,7 +11523,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -11768,7 +11757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>122</v>
       </c>
@@ -11794,7 +11783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>122</v>
       </c>
@@ -11872,7 +11861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>2598337</v>
       </c>
@@ -11898,7 +11887,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>2598337</v>
       </c>
@@ -11924,7 +11913,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>2598337</v>
       </c>
@@ -11950,7 +11939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>2598337</v>
       </c>
@@ -11976,7 +11965,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>2598337</v>
       </c>
@@ -12002,7 +11991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>2598337</v>
       </c>
@@ -12028,7 +12017,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>2598337</v>
       </c>
@@ -12054,7 +12043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>2598337</v>
       </c>
@@ -12080,7 +12069,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>2598337</v>
       </c>
@@ -12106,7 +12095,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>2598337</v>
       </c>
@@ -12262,7 +12251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>129</v>
       </c>
@@ -12288,7 +12277,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>129</v>
       </c>
@@ -12314,7 +12303,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>129</v>
       </c>
@@ -12340,7 +12329,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>129</v>
       </c>
@@ -12366,7 +12355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>129</v>
       </c>
@@ -12392,7 +12381,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>129</v>
       </c>
@@ -12418,7 +12407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>129</v>
       </c>
@@ -12444,7 +12433,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>129</v>
       </c>
@@ -12470,7 +12459,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>129</v>
       </c>
@@ -12496,7 +12485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>129</v>
       </c>
@@ -12522,7 +12511,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>129</v>
       </c>
@@ -12548,7 +12537,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>129</v>
       </c>
@@ -12574,7 +12563,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>129</v>
       </c>
@@ -12912,7 +12901,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>135</v>
       </c>
@@ -13094,7 +13083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>141</v>
       </c>
@@ -13120,7 +13109,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>141</v>
       </c>
@@ -13146,7 +13135,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>141</v>
       </c>
@@ -13172,7 +13161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>141</v>
       </c>
@@ -13198,7 +13187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>141</v>
       </c>
@@ -13224,7 +13213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>141</v>
       </c>
@@ -13250,7 +13239,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>141</v>
       </c>
@@ -13276,7 +13265,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>141</v>
       </c>
@@ -13302,7 +13291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>141</v>
       </c>
@@ -13328,7 +13317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>141</v>
       </c>
@@ -13354,7 +13343,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>141</v>
       </c>
@@ -13380,7 +13369,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>141</v>
       </c>
@@ -13406,7 +13395,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>141</v>
       </c>
@@ -13432,7 +13421,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>141</v>
       </c>
@@ -13458,7 +13447,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>141</v>
       </c>
@@ -13796,7 +13785,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>147</v>
       </c>
@@ -13822,7 +13811,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -13848,7 +13837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>147</v>
       </c>
@@ -13874,7 +13863,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>147</v>
       </c>
@@ -13900,7 +13889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>147</v>
       </c>
@@ -13926,7 +13915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>147</v>
       </c>
@@ -13952,7 +13941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>147</v>
       </c>
@@ -13978,7 +13967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>147</v>
       </c>
@@ -14004,7 +13993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>147</v>
       </c>
@@ -14030,7 +14019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>147</v>
       </c>
@@ -14056,7 +14045,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>147</v>
       </c>
@@ -14394,7 +14383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>153</v>
       </c>
@@ -14420,7 +14409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>153</v>
       </c>
@@ -14446,7 +14435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>153</v>
       </c>
@@ -14472,7 +14461,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>153</v>
       </c>
@@ -14498,7 +14487,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>153</v>
       </c>
@@ -14524,7 +14513,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>153</v>
       </c>
@@ -14550,7 +14539,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>153</v>
       </c>
@@ -14576,7 +14565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>153</v>
       </c>
@@ -14602,7 +14591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>153</v>
       </c>
@@ -14628,7 +14617,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>153</v>
       </c>
@@ -14654,7 +14643,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>153</v>
       </c>
@@ -14680,7 +14669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>153</v>
       </c>
@@ -14706,7 +14695,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>153</v>
       </c>
@@ -14732,7 +14721,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>153</v>
       </c>
@@ -15122,7 +15111,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>159</v>
       </c>
@@ -15148,7 +15137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>159</v>
       </c>
@@ -15174,7 +15163,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>159</v>
       </c>
@@ -15200,7 +15189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>159</v>
       </c>
@@ -15226,7 +15215,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>159</v>
       </c>
@@ -15252,7 +15241,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>159</v>
       </c>
@@ -15538,7 +15527,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>163</v>
       </c>
@@ -15564,7 +15553,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>163</v>
       </c>
@@ -15590,7 +15579,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>163</v>
       </c>
@@ -15616,7 +15605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>163</v>
       </c>
@@ -15642,7 +15631,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>163</v>
       </c>
@@ -15668,7 +15657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>163</v>
       </c>
@@ -15694,7 +15683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>163</v>
       </c>
@@ -15720,7 +15709,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>163</v>
       </c>
@@ -15746,7 +15735,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>163</v>
       </c>
@@ -15772,7 +15761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>163</v>
       </c>
@@ -15798,7 +15787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>163</v>
       </c>
@@ -15824,7 +15813,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>163</v>
       </c>
@@ -15850,7 +15839,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>163</v>
       </c>
@@ -15876,7 +15865,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>163</v>
       </c>
@@ -15902,7 +15891,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>163</v>
       </c>
@@ -15928,7 +15917,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>163</v>
       </c>
@@ -15954,7 +15943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>163</v>
       </c>
@@ -15980,7 +15969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>163</v>
       </c>
@@ -16006,7 +15995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>163</v>
       </c>
@@ -16032,7 +16021,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>163</v>
       </c>
@@ -16058,7 +16047,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>163</v>
       </c>
@@ -16084,7 +16073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>163</v>
       </c>
@@ -16110,7 +16099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>163</v>
       </c>
@@ -16136,7 +16125,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>163</v>
       </c>
@@ -16162,7 +16151,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>163</v>
       </c>
@@ -16188,7 +16177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>163</v>
       </c>
@@ -16214,7 +16203,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>163</v>
       </c>
@@ -16240,7 +16229,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>163</v>
       </c>
@@ -16266,7 +16255,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>171</v>
       </c>
@@ -16292,7 +16281,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>171</v>
       </c>
@@ -16448,7 +16437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>171</v>
       </c>
@@ -16474,7 +16463,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>171</v>
       </c>
@@ -16500,7 +16489,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>171</v>
       </c>
@@ -16526,7 +16515,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>171</v>
       </c>
@@ -16552,7 +16541,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>177</v>
       </c>
@@ -16578,7 +16567,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>177</v>
       </c>
@@ -16604,7 +16593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>177</v>
       </c>
@@ -16630,7 +16619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>177</v>
       </c>
@@ -16786,7 +16775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>177</v>
       </c>
@@ -16812,7 +16801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>177</v>
       </c>
@@ -16838,7 +16827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>177</v>
       </c>
@@ -16864,7 +16853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>177</v>
       </c>
@@ -16890,7 +16879,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>177</v>
       </c>
@@ -16916,7 +16905,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>182</v>
       </c>
@@ -16942,7 +16931,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>182</v>
       </c>
@@ -16968,7 +16957,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>182</v>
       </c>
@@ -16994,7 +16983,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>182</v>
       </c>
@@ -17020,7 +17009,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>182</v>
       </c>
@@ -17124,7 +17113,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>185</v>
       </c>
@@ -17150,7 +17139,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>185</v>
       </c>
@@ -17176,7 +17165,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>185</v>
       </c>
@@ -17202,7 +17191,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>185</v>
       </c>
@@ -17228,7 +17217,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>185</v>
       </c>
@@ -17384,7 +17373,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>188</v>
       </c>
@@ -17410,7 +17399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>188</v>
       </c>
@@ -17436,7 +17425,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>188</v>
       </c>
@@ -17462,7 +17451,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>188</v>
       </c>
@@ -17488,7 +17477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>188</v>
       </c>
@@ -17514,7 +17503,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>188</v>
       </c>
@@ -17540,7 +17529,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>188</v>
       </c>
@@ -17566,7 +17555,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>188</v>
       </c>
@@ -17592,7 +17581,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>188</v>
       </c>
@@ -17618,7 +17607,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>188</v>
       </c>
@@ -17644,7 +17633,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>188</v>
       </c>
@@ -17670,7 +17659,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>188</v>
       </c>
@@ -17982,7 +17971,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>191</v>
       </c>
@@ -18008,7 +17997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>191</v>
       </c>
@@ -18034,7 +18023,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>191</v>
       </c>
@@ -18060,7 +18049,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>191</v>
       </c>
@@ -18086,7 +18075,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>191</v>
       </c>
@@ -18112,7 +18101,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>191</v>
       </c>
@@ -18138,7 +18127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>191</v>
       </c>
@@ -18164,7 +18153,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>191</v>
       </c>
@@ -18190,7 +18179,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>191</v>
       </c>
@@ -18216,7 +18205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>191</v>
       </c>
@@ -18242,7 +18231,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>191</v>
       </c>
@@ -18268,7 +18257,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>191</v>
       </c>
@@ -18294,7 +18283,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>191</v>
       </c>
@@ -18320,7 +18309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>191</v>
       </c>
@@ -18346,7 +18335,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>191</v>
       </c>
@@ -18372,7 +18361,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>191</v>
       </c>
@@ -18398,7 +18387,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>191</v>
       </c>
@@ -18424,7 +18413,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>191</v>
       </c>
@@ -18450,7 +18439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>191</v>
       </c>
@@ -18476,7 +18465,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>191</v>
       </c>
@@ -18502,7 +18491,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>191</v>
       </c>
@@ -18528,7 +18517,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>191</v>
       </c>
@@ -18554,7 +18543,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>191</v>
       </c>
@@ -19074,7 +19063,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>200</v>
       </c>
@@ -19100,7 +19089,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>200</v>
       </c>
@@ -19126,7 +19115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>200</v>
       </c>
@@ -19152,7 +19141,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>200</v>
       </c>
@@ -19178,7 +19167,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>200</v>
       </c>
@@ -19204,7 +19193,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>200</v>
       </c>
@@ -19230,7 +19219,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>200</v>
       </c>
@@ -19256,7 +19245,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>200</v>
       </c>
@@ -19282,7 +19271,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>200</v>
       </c>
@@ -19308,7 +19297,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>200</v>
       </c>
@@ -19334,7 +19323,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>200</v>
       </c>
@@ -19360,7 +19349,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>200</v>
       </c>
@@ -19386,7 +19375,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>200</v>
       </c>
@@ -19412,7 +19401,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>200</v>
       </c>
@@ -19438,7 +19427,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>200</v>
       </c>
@@ -19750,7 +19739,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>205</v>
       </c>
@@ -19776,7 +19765,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>205</v>
       </c>
@@ -19802,7 +19791,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>205</v>
       </c>
@@ -19828,7 +19817,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>205</v>
       </c>
@@ -19854,7 +19843,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>205</v>
       </c>
@@ -19880,7 +19869,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>205</v>
       </c>
@@ -19906,7 +19895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>205</v>
       </c>
@@ -19932,7 +19921,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>205</v>
       </c>
@@ -19958,7 +19947,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>205</v>
       </c>
@@ -19984,7 +19973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>205</v>
       </c>
@@ -20010,7 +19999,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>205</v>
       </c>
@@ -20582,7 +20571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>211</v>
       </c>
@@ -20608,7 +20597,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>211</v>
       </c>
@@ -20634,7 +20623,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>211</v>
       </c>
@@ -20660,7 +20649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>211</v>
       </c>
@@ -20686,7 +20675,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>211</v>
       </c>
@@ -20712,7 +20701,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>211</v>
       </c>
@@ -20738,7 +20727,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>211</v>
       </c>
@@ -20764,7 +20753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>211</v>
       </c>
@@ -20790,7 +20779,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>211</v>
       </c>
@@ -20816,7 +20805,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>211</v>
       </c>
@@ -20842,7 +20831,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>211</v>
       </c>
@@ -20868,7 +20857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>211</v>
       </c>
@@ -20894,7 +20883,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>214</v>
       </c>
@@ -20920,7 +20909,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>214</v>
       </c>
@@ -20946,7 +20935,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>214</v>
       </c>
@@ -20972,7 +20961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>214</v>
       </c>
@@ -20998,7 +20987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>214</v>
       </c>
@@ -21024,7 +21013,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>214</v>
       </c>
@@ -21050,7 +21039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>214</v>
       </c>
@@ -21700,7 +21689,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>224</v>
       </c>
@@ -21726,7 +21715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>224</v>
       </c>
@@ -21856,7 +21845,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>230</v>
       </c>
@@ -21882,7 +21871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>230</v>
       </c>
@@ -21908,7 +21897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>230</v>
       </c>
@@ -21934,7 +21923,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>230</v>
       </c>
@@ -21960,7 +21949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>230</v>
       </c>
@@ -21986,7 +21975,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>230</v>
       </c>
@@ -22012,7 +22001,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>230</v>
       </c>
@@ -22038,7 +22027,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>230</v>
       </c>
@@ -22194,7 +22183,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>235</v>
       </c>
@@ -22220,7 +22209,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>235</v>
       </c>
@@ -22246,7 +22235,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>235</v>
       </c>
@@ -22272,7 +22261,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>235</v>
       </c>
@@ -22298,7 +22287,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>235</v>
       </c>
@@ -22324,7 +22313,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>235</v>
       </c>
@@ -22350,7 +22339,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>235</v>
       </c>
@@ -22376,7 +22365,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>235</v>
       </c>
@@ -22506,7 +22495,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>235</v>
       </c>
@@ -22532,7 +22521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>235</v>
       </c>
@@ -22558,7 +22547,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>235</v>
       </c>
@@ -22584,7 +22573,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>235</v>
       </c>
@@ -22610,7 +22599,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>235</v>
       </c>
@@ -22636,7 +22625,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>235</v>
       </c>
@@ -22662,7 +22651,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>235</v>
       </c>
@@ -22688,7 +22677,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>235</v>
       </c>
@@ -22714,7 +22703,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>235</v>
       </c>
@@ -22740,7 +22729,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>235</v>
       </c>
@@ -22766,7 +22755,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>235</v>
       </c>
@@ -22792,7 +22781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>235</v>
       </c>
@@ -22818,7 +22807,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>235</v>
       </c>
@@ -22844,7 +22833,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>235</v>
       </c>
@@ -22870,7 +22859,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>235</v>
       </c>
@@ -22896,7 +22885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>235</v>
       </c>
@@ -22922,7 +22911,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>235</v>
       </c>
@@ -22948,7 +22937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>235</v>
       </c>
@@ -22974,7 +22963,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>235</v>
       </c>
@@ -23000,7 +22989,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>235</v>
       </c>
@@ -23026,7 +23015,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>235</v>
       </c>
@@ -23052,7 +23041,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>235</v>
       </c>
@@ -23078,7 +23067,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>235</v>
       </c>
@@ -23104,7 +23093,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>235</v>
       </c>
@@ -23130,7 +23119,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>235</v>
       </c>
@@ -23156,7 +23145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>235</v>
       </c>
@@ -23182,7 +23171,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>235</v>
       </c>
@@ -23208,7 +23197,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>235</v>
       </c>
@@ -23234,7 +23223,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>235</v>
       </c>
@@ -23260,7 +23249,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>235</v>
       </c>
@@ -23286,7 +23275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>235</v>
       </c>
@@ -23312,7 +23301,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>235</v>
       </c>
@@ -23338,7 +23327,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>235</v>
       </c>
@@ -23364,7 +23353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>235</v>
       </c>
@@ -23390,7 +23379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>235</v>
       </c>
@@ -23416,7 +23405,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>235</v>
       </c>
@@ -23442,7 +23431,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>235</v>
       </c>
@@ -23468,7 +23457,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>235</v>
       </c>
@@ -23494,7 +23483,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>235</v>
       </c>
@@ -23520,7 +23509,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>235</v>
       </c>
@@ -23546,7 +23535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>235</v>
       </c>
@@ -23572,7 +23561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>235</v>
       </c>
@@ -23598,7 +23587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>235</v>
       </c>
@@ -23624,7 +23613,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>235</v>
       </c>
@@ -23650,7 +23639,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>235</v>
       </c>
@@ -23676,7 +23665,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>235</v>
       </c>
@@ -23702,7 +23691,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>235</v>
       </c>
@@ -23728,7 +23717,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>235</v>
       </c>
@@ -23754,7 +23743,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>235</v>
       </c>
@@ -23780,7 +23769,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>235</v>
       </c>
@@ -23806,7 +23795,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>235</v>
       </c>
@@ -23832,7 +23821,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>235</v>
       </c>
@@ -23858,7 +23847,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>235</v>
       </c>
@@ -23884,7 +23873,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>245</v>
       </c>
@@ -23910,7 +23899,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>245</v>
       </c>
@@ -23936,7 +23925,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>245</v>
       </c>
@@ -23962,7 +23951,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>245</v>
       </c>
@@ -23988,7 +23977,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>245</v>
       </c>
@@ -24014,7 +24003,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>245</v>
       </c>
@@ -24040,7 +24029,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>245</v>
       </c>
@@ -24066,7 +24055,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>245</v>
       </c>
@@ -24092,7 +24081,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>245</v>
       </c>
@@ -24118,7 +24107,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>245</v>
       </c>
@@ -24144,7 +24133,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>245</v>
       </c>
@@ -24170,7 +24159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>245</v>
       </c>
@@ -24196,7 +24185,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>245</v>
       </c>
@@ -24222,7 +24211,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>245</v>
       </c>
@@ -24248,7 +24237,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>245</v>
       </c>
@@ -24274,7 +24263,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>245</v>
       </c>
@@ -24300,7 +24289,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>245</v>
       </c>
@@ -24326,7 +24315,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>245</v>
       </c>
@@ -24352,7 +24341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>245</v>
       </c>
@@ -24378,7 +24367,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>245</v>
       </c>
@@ -24404,7 +24393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>245</v>
       </c>
@@ -24430,7 +24419,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>245</v>
       </c>
@@ -24456,7 +24445,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>245</v>
       </c>
@@ -24482,7 +24471,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>245</v>
       </c>
@@ -24508,7 +24497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>245</v>
       </c>
@@ -24534,7 +24523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>245</v>
       </c>
@@ -24560,7 +24549,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>245</v>
       </c>
@@ -24586,7 +24575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>245</v>
       </c>
@@ -24612,7 +24601,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>245</v>
       </c>
@@ -24638,7 +24627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>245</v>
       </c>
@@ -24664,7 +24653,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>245</v>
       </c>
@@ -24690,7 +24679,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>245</v>
       </c>
@@ -24716,7 +24705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>245</v>
       </c>
@@ -24742,7 +24731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>245</v>
       </c>
@@ -24768,7 +24757,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>245</v>
       </c>
@@ -24794,7 +24783,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>245</v>
       </c>
@@ -24820,7 +24809,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>245</v>
       </c>
@@ -24846,7 +24835,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>245</v>
       </c>
@@ -24872,7 +24861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>245</v>
       </c>
@@ -24898,7 +24887,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>245</v>
       </c>
@@ -24924,7 +24913,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>245</v>
       </c>
@@ -24950,7 +24939,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>245</v>
       </c>
@@ -24976,7 +24965,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>245</v>
       </c>
@@ -25002,7 +24991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>245</v>
       </c>
@@ -25028,7 +25017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>245</v>
       </c>
@@ -25678,7 +25667,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="906" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>256</v>
       </c>
@@ -25704,7 +25693,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>256</v>
       </c>
@@ -25730,7 +25719,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="908" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>256</v>
       </c>
@@ -25756,7 +25745,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="909" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>256</v>
       </c>
@@ -25782,7 +25771,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="910" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>256</v>
       </c>
@@ -25808,7 +25797,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>256</v>
       </c>
@@ -25834,7 +25823,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="912" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>256</v>
       </c>
@@ -25860,7 +25849,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="913" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>256</v>
       </c>
@@ -26094,7 +26083,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>0</v>
       </c>
@@ -26120,7 +26109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>81</v>
       </c>
@@ -26146,7 +26135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>81</v>
       </c>
@@ -26172,7 +26161,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>81</v>
       </c>
@@ -26198,7 +26187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>81</v>
       </c>
@@ -26224,7 +26213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>81</v>
       </c>
@@ -26250,7 +26239,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>81</v>
       </c>
@@ -26276,7 +26265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="929" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>81</v>
       </c>
@@ -26302,7 +26291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="930" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>81</v>
       </c>
@@ -26328,7 +26317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="931" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>81</v>
       </c>
@@ -26354,7 +26343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="932" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>81</v>
       </c>
@@ -26380,7 +26369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="933" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>81</v>
       </c>
@@ -26848,7 +26837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="951" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>263</v>
       </c>
@@ -26874,7 +26863,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>263</v>
       </c>
@@ -26900,7 +26889,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>263</v>
       </c>
@@ -26926,7 +26915,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="954" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>263</v>
       </c>
@@ -26952,7 +26941,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="955" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>263</v>
       </c>
@@ -26978,7 +26967,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="956" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>263</v>
       </c>
@@ -27186,7 +27175,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="964" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>268</v>
       </c>
@@ -27212,7 +27201,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="965" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>268</v>
       </c>
@@ -27238,7 +27227,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="966" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>268</v>
       </c>
@@ -27264,7 +27253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="967" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>268</v>
       </c>
@@ -27290,7 +27279,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="968" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>268</v>
       </c>
@@ -27316,7 +27305,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="969" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>268</v>
       </c>
@@ -27342,7 +27331,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="970" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>268</v>
       </c>
@@ -27368,7 +27357,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="971" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>268</v>
       </c>
@@ -27394,7 +27383,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="972" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>268</v>
       </c>
@@ -27420,7 +27409,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="973" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>268</v>
       </c>
@@ -27446,7 +27435,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="974" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>273</v>
       </c>
@@ -27472,7 +27461,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="975" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>273</v>
       </c>
@@ -27498,7 +27487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="976" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>273</v>
       </c>
@@ -27524,7 +27513,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>273</v>
       </c>
@@ -27550,7 +27539,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="978" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>273</v>
       </c>
@@ -27576,7 +27565,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="979" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>273</v>
       </c>
@@ -27602,7 +27591,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="980" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>273</v>
       </c>
@@ -27628,7 +27617,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="981" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>273</v>
       </c>
@@ -27654,7 +27643,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="982" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>273</v>
       </c>
@@ -28486,7 +28475,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>283</v>
       </c>
@@ -28512,7 +28501,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>283</v>
       </c>
@@ -28538,7 +28527,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>283</v>
       </c>
@@ -28564,7 +28553,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>283</v>
       </c>
@@ -29110,7 +29099,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="1038" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>290</v>
       </c>
@@ -29136,7 +29125,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="1039" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>290</v>
       </c>
@@ -30670,7 +30659,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="1098" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>302</v>
       </c>
@@ -30696,7 +30685,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>302</v>
       </c>
@@ -30722,7 +30711,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>302</v>
       </c>
@@ -30748,7 +30737,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>302</v>
       </c>
@@ -30774,7 +30763,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>302</v>
       </c>
@@ -30800,7 +30789,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>302</v>
       </c>
@@ -30826,7 +30815,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>302</v>
       </c>
@@ -30852,7 +30841,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>302</v>
       </c>
@@ -30878,7 +30867,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>302</v>
       </c>
@@ -30904,7 +30893,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>302</v>
       </c>
@@ -30930,7 +30919,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>302</v>
       </c>
@@ -30956,7 +30945,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>302</v>
       </c>
@@ -30982,7 +30971,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>302</v>
       </c>
@@ -31008,7 +30997,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>302</v>
       </c>
@@ -31034,7 +31023,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>302</v>
       </c>
@@ -31060,7 +31049,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>302</v>
       </c>
@@ -31086,7 +31075,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>302</v>
       </c>
@@ -31216,7 +31205,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>302</v>
       </c>
@@ -31242,7 +31231,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>302</v>
       </c>
@@ -31268,7 +31257,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>302</v>
       </c>
@@ -31294,7 +31283,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>302</v>
       </c>
@@ -31320,7 +31309,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
         <v>302</v>
       </c>
@@ -31346,7 +31335,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>302</v>
       </c>
@@ -31450,7 +31439,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="1128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>312</v>
       </c>
@@ -31476,7 +31465,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
         <v>312</v>
       </c>
@@ -31502,7 +31491,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>312</v>
       </c>
@@ -31528,7 +31517,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>312</v>
       </c>
@@ -31554,7 +31543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>312</v>
       </c>
@@ -31580,7 +31569,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>312</v>
       </c>
@@ -31606,7 +31595,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>312</v>
       </c>
@@ -31632,7 +31621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
         <v>312</v>
       </c>
@@ -31658,7 +31647,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>312</v>
       </c>
@@ -31866,7 +31855,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="1144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
         <v>317</v>
       </c>
@@ -31892,7 +31881,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>317</v>
       </c>
@@ -31918,7 +31907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
         <v>317</v>
       </c>
@@ -31944,7 +31933,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
         <v>317</v>
       </c>
@@ -31970,7 +31959,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
         <v>317</v>
       </c>
@@ -31996,7 +31985,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>317</v>
       </c>
@@ -32022,7 +32011,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
         <v>317</v>
       </c>
@@ -32048,7 +32037,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>317</v>
       </c>
@@ -32074,7 +32063,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>317</v>
       </c>
@@ -32100,7 +32089,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>317</v>
       </c>
@@ -32126,7 +32115,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>317</v>
       </c>
@@ -32152,7 +32141,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>317</v>
       </c>
@@ -32178,7 +32167,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="1156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>317</v>
       </c>
@@ -32204,7 +32193,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>317</v>
       </c>
@@ -32230,7 +32219,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>317</v>
       </c>
@@ -32256,7 +32245,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>317</v>
       </c>
@@ -32282,7 +32271,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="1160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>317</v>
       </c>
@@ -32516,7 +32505,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="1169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>322</v>
       </c>
@@ -32542,7 +32531,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>322</v>
       </c>
@@ -32568,7 +32557,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>322</v>
       </c>
@@ -32594,7 +32583,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>322</v>
       </c>
@@ -32620,7 +32609,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>322</v>
       </c>
@@ -32646,7 +32635,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>322</v>
       </c>
@@ -32672,7 +32661,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>322</v>
       </c>
@@ -32698,7 +32687,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>322</v>
       </c>
@@ -32724,7 +32713,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>322</v>
       </c>
@@ -32750,7 +32739,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>322</v>
       </c>
@@ -32776,7 +32765,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>322</v>
       </c>
@@ -32802,7 +32791,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>322</v>
       </c>
@@ -32828,7 +32817,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>322</v>
       </c>
@@ -32854,7 +32843,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>322</v>
       </c>
@@ -32880,7 +32869,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>322</v>
       </c>
@@ -32906,7 +32895,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>322</v>
       </c>
@@ -32932,7 +32921,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>322</v>
       </c>
@@ -32958,7 +32947,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>322</v>
       </c>
@@ -32984,7 +32973,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="1187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>322</v>
       </c>
@@ -33010,7 +32999,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="1188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>322</v>
       </c>
@@ -33036,7 +33025,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="1189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>322</v>
       </c>
@@ -33062,7 +33051,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="1190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>322</v>
       </c>
@@ -33400,7 +33389,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="1203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>329</v>
       </c>
@@ -33426,7 +33415,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="1204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>256</v>
       </c>
@@ -33452,7 +33441,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>256</v>
       </c>
@@ -33478,7 +33467,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>256</v>
       </c>
@@ -33504,7 +33493,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>256</v>
       </c>
@@ -33530,7 +33519,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>256</v>
       </c>
@@ -33556,7 +33545,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>256</v>
       </c>
@@ -33582,7 +33571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>256</v>
       </c>
@@ -33608,7 +33597,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>256</v>
       </c>
@@ -34076,7 +34065,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="1229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
         <v>334</v>
       </c>
@@ -34102,7 +34091,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
         <v>334</v>
       </c>
@@ -34128,7 +34117,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
         <v>334</v>
       </c>
@@ -34154,7 +34143,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
         <v>334</v>
       </c>
@@ -34180,7 +34169,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="1233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
         <v>334</v>
       </c>
@@ -34284,7 +34273,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="1237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
         <v>338</v>
       </c>
@@ -34310,7 +34299,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="1238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>338</v>
       </c>
@@ -34518,7 +34507,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="1246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
         <v>341</v>
       </c>
@@ -34544,7 +34533,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
         <v>341</v>
       </c>
@@ -34570,7 +34559,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
         <v>341</v>
       </c>
@@ -34596,7 +34585,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
         <v>341</v>
       </c>
@@ -34622,7 +34611,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
         <v>341</v>
       </c>
@@ -34648,7 +34637,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
         <v>341</v>
       </c>
@@ -34674,7 +34663,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
         <v>341</v>
       </c>
@@ -34700,7 +34689,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
         <v>341</v>
       </c>
@@ -34726,7 +34715,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
         <v>341</v>
       </c>
@@ -34752,7 +34741,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>341</v>
       </c>
@@ -34778,7 +34767,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="1256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
         <v>341</v>
       </c>
@@ -34804,7 +34793,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
         <v>341</v>
       </c>
@@ -34830,7 +34819,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
         <v>341</v>
       </c>
@@ -34856,7 +34845,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
         <v>341</v>
       </c>
@@ -34882,7 +34871,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
         <v>341</v>
       </c>
@@ -34908,7 +34897,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="1261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
         <v>341</v>
       </c>
@@ -34934,7 +34923,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
         <v>341</v>
       </c>
@@ -34960,7 +34949,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
         <v>341</v>
       </c>
@@ -34986,7 +34975,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
         <v>341</v>
       </c>
@@ -35012,7 +35001,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
         <v>341</v>
       </c>
@@ -35038,7 +35027,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
         <v>341</v>
       </c>
@@ -35064,7 +35053,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
         <v>341</v>
       </c>
@@ -35090,7 +35079,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="1268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
         <v>341</v>
       </c>
@@ -35532,7 +35521,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
         <v>348</v>
       </c>
@@ -35558,7 +35547,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
         <v>348</v>
       </c>
@@ -35636,7 +35625,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="1289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
         <v>348</v>
       </c>
@@ -35662,7 +35651,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="1290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
         <v>348</v>
       </c>
@@ -35870,7 +35859,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="1298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
         <v>355</v>
       </c>
@@ -35896,7 +35885,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
         <v>355</v>
       </c>
@@ -35922,7 +35911,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
         <v>355</v>
       </c>
@@ -35948,7 +35937,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
         <v>355</v>
       </c>
@@ -35974,7 +35963,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
         <v>355</v>
       </c>
@@ -36000,7 +35989,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="1303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
         <v>358</v>
       </c>
@@ -36026,7 +36015,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
         <v>358</v>
       </c>
@@ -36052,7 +36041,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
         <v>358</v>
       </c>
@@ -36078,7 +36067,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
         <v>358</v>
       </c>
@@ -36104,7 +36093,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
         <v>358</v>
       </c>
@@ -36130,7 +36119,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
         <v>358</v>
       </c>
@@ -36546,7 +36535,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="1324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
         <v>361</v>
       </c>
@@ -36572,7 +36561,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
         <v>361</v>
       </c>
@@ -36598,7 +36587,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
         <v>361</v>
       </c>
@@ -36624,7 +36613,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>361</v>
       </c>
@@ -36650,7 +36639,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>361</v>
       </c>
@@ -36676,7 +36665,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>361</v>
       </c>
@@ -36702,7 +36691,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>361</v>
       </c>
@@ -36728,7 +36717,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>361</v>
       </c>
@@ -36754,7 +36743,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>361</v>
       </c>
@@ -36780,7 +36769,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>361</v>
       </c>
@@ -36806,7 +36795,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
         <v>361</v>
       </c>
@@ -36832,7 +36821,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>361</v>
       </c>
@@ -36858,7 +36847,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="1336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
         <v>361</v>
       </c>
@@ -37248,7 +37237,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="1351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
         <v>370</v>
       </c>
@@ -37274,7 +37263,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
         <v>370</v>
       </c>
@@ -37300,7 +37289,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
         <v>370</v>
       </c>
@@ -37326,7 +37315,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
         <v>370</v>
       </c>
@@ -37352,7 +37341,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
         <v>370</v>
       </c>
@@ -37378,7 +37367,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
         <v>370</v>
       </c>
@@ -37404,7 +37393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
         <v>370</v>
       </c>
@@ -37430,7 +37419,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
         <v>370</v>
       </c>
@@ -37456,7 +37445,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
         <v>370</v>
       </c>
@@ -37482,7 +37471,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
         <v>370</v>
       </c>
@@ -37508,7 +37497,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>370</v>
       </c>
@@ -38106,7 +38095,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="1384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
         <v>370</v>
       </c>
@@ -38132,7 +38121,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
         <v>370</v>
       </c>
@@ -38158,7 +38147,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
         <v>370</v>
       </c>
@@ -38184,7 +38173,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
         <v>370</v>
       </c>
@@ -38210,7 +38199,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
         <v>370</v>
       </c>
@@ -38236,7 +38225,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
         <v>370</v>
       </c>
@@ -38262,7 +38251,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
         <v>370</v>
       </c>
@@ -38288,7 +38277,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
         <v>370</v>
       </c>
@@ -38314,7 +38303,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
         <v>370</v>
       </c>
@@ -38340,7 +38329,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
         <v>370</v>
       </c>
@@ -38366,7 +38355,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
         <v>370</v>
       </c>
@@ -38392,7 +38381,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
         <v>378</v>
       </c>
@@ -38418,7 +38407,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
         <v>378</v>
       </c>
@@ -38444,7 +38433,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
         <v>378</v>
       </c>
@@ -38470,7 +38459,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
         <v>378</v>
       </c>
@@ -38496,7 +38485,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>378</v>
       </c>
@@ -38522,7 +38511,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
         <v>378</v>
       </c>
@@ -38548,7 +38537,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>378</v>
       </c>
@@ -38574,7 +38563,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>378</v>
       </c>
@@ -38704,7 +38693,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>384</v>
       </c>
@@ -38730,7 +38719,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
         <v>384</v>
       </c>
@@ -39380,7 +39369,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="1433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
         <v>391</v>
       </c>
@@ -39406,7 +39395,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
         <v>391</v>
       </c>
@@ -39432,7 +39421,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
         <v>391</v>
       </c>
@@ -39458,7 +39447,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
         <v>391</v>
       </c>
@@ -39484,7 +39473,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
         <v>391</v>
       </c>
@@ -39510,7 +39499,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
         <v>391</v>
       </c>
@@ -39536,7 +39525,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
         <v>391</v>
       </c>
@@ -39562,7 +39551,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
         <v>391</v>
       </c>
@@ -39588,7 +39577,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
         <v>391</v>
       </c>
@@ -39614,7 +39603,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
         <v>391</v>
       </c>
@@ -39640,7 +39629,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
         <v>391</v>
       </c>
@@ -39666,7 +39655,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
         <v>391</v>
       </c>
@@ -39692,7 +39681,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="1445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
         <v>391</v>
       </c>
@@ -39718,7 +39707,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
         <v>391</v>
       </c>
@@ -39744,7 +39733,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
         <v>391</v>
       </c>
@@ -39770,7 +39759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
         <v>391</v>
       </c>
@@ -39796,7 +39785,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
         <v>391</v>
       </c>
@@ -39822,7 +39811,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
         <v>391</v>
       </c>
@@ -39848,7 +39837,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
         <v>391</v>
       </c>
@@ -39874,7 +39863,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
         <v>391</v>
       </c>
@@ -39900,7 +39889,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
         <v>391</v>
       </c>
@@ -39926,7 +39915,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
         <v>391</v>
       </c>
@@ -39952,7 +39941,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
         <v>391</v>
       </c>
@@ -39978,7 +39967,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
         <v>391</v>
       </c>
@@ -40004,7 +39993,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
         <v>391</v>
       </c>
@@ -40030,7 +40019,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="1458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
         <v>391</v>
       </c>
@@ -40056,7 +40045,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
         <v>391</v>
       </c>
@@ -40082,7 +40071,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
         <v>391</v>
       </c>
@@ -40108,7 +40097,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
         <v>391</v>
       </c>
@@ -40134,7 +40123,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
         <v>391</v>
       </c>
@@ -40160,7 +40149,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
         <v>391</v>
       </c>
@@ -40186,7 +40175,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
         <v>391</v>
       </c>
@@ -40212,7 +40201,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
         <v>391</v>
       </c>
@@ -40238,7 +40227,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
         <v>391</v>
       </c>
@@ -40264,7 +40253,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
         <v>391</v>
       </c>
@@ -40290,7 +40279,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
         <v>391</v>
       </c>
@@ -40316,7 +40305,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
         <v>391</v>
       </c>
@@ -40342,7 +40331,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
         <v>391</v>
       </c>
@@ -42110,7 +42099,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
         <v>405</v>
       </c>
@@ -42136,7 +42125,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
         <v>405</v>
       </c>
@@ -42162,7 +42151,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="1540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
         <v>405</v>
       </c>
@@ -42188,7 +42177,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
         <v>405</v>
       </c>
@@ -42214,7 +42203,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
         <v>405</v>
       </c>
@@ -42240,7 +42229,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
         <v>405</v>
       </c>
@@ -42266,7 +42255,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
         <v>405</v>
       </c>
@@ -42292,7 +42281,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
         <v>405</v>
       </c>
@@ -42318,7 +42307,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="1546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
         <v>405</v>
       </c>
@@ -42344,7 +42333,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
         <v>405</v>
       </c>
@@ -42370,7 +42359,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
         <v>405</v>
       </c>
@@ -42396,7 +42385,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="1549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
         <v>405</v>
       </c>
